--- a/EcommerceProject_Secret/testData/EcommTestData.xlsx
+++ b/EcommerceProject_Secret/testData/EcommTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswo\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC8913-46FF-4C9F-B274-7DBE3E482833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0D5FA-17AE-4EA6-A73A-10DA5FDE6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -54,25 +54,25 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>laksh@yahoo.com</t>
-  </si>
-  <si>
     <t>Laxmi</t>
   </si>
   <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
     <t>Tulu9090@</t>
   </si>
   <si>
     <t>dannapurna826@gmail.com</t>
   </si>
   <si>
-    <t>xyz123</t>
+    <t>xyzshs</t>
+  </si>
+  <si>
+    <t>mithunsh@gmail.com</t>
+  </si>
+  <si>
+    <t>lakshya@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,10 +493,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -507,40 +507,40 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>

--- a/EcommerceProject_Secret/testData/EcommTestData.xlsx
+++ b/EcommerceProject_Secret/testData/EcommTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswo\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0D5FA-17AE-4EA6-A73A-10DA5FDE6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C27400-829E-41FC-88F2-53D993FB5296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -45,34 +36,40 @@
     <t>res</t>
   </si>
   <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
     <t>Lakshmi</t>
   </si>
   <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
+    <t>xyzshs</t>
+  </si>
+  <si>
+    <t>mithunsh@gmail.com</t>
+  </si>
+  <si>
+    <t>lakshya@gmail.com</t>
+  </si>
+  <si>
+    <t>dannapurna@gmail.com</t>
+  </si>
+  <si>
+    <t>Tulu9yaha</t>
+  </si>
+  <si>
+    <t>dannapurna826@gmail.com</t>
+  </si>
+  <si>
     <t>Tulu9090@</t>
   </si>
   <si>
-    <t>dannapurna826@gmail.com</t>
-  </si>
-  <si>
-    <t>xyzshs</t>
-  </si>
-  <si>
-    <t>mithunsh@gmail.com</t>
-  </si>
-  <si>
-    <t>lakshya@gmail.com</t>
+    <t xml:space="preserve">    dannapurna826@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Tulu9090@</t>
   </si>
 </sst>
 </file>
@@ -110,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,12 +130,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +158,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +481,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,70 +504,69 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
+    <hyperlink ref="B5" r:id="rId6" display="Tulu9090@" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>